--- a/assets/disciplinas/LOQ4008.xlsx
+++ b/assets/disciplinas/LOQ4008.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-10,EQD-10,EQN-12</t>
+    <t>EQD-10,EQN-12</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -130,7 +130,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOB1012 -  Estatística  (Requisito)
+    <t xml:space="preserve">LOB1012 -  Estatística  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOQ4008.xlsx
+++ b/assets/disciplinas/LOQ4008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Capacitar os alunos a entenderem os conceitos e a lógica da gestão tecnológica bem como suas implicações na gestão das empresas e no desenvolvimento econômico</t>
+    <t>849935 - Humberto Felipe da Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>849935 - Humberto Felipe da Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>IntroduçãoConceitosTecnologia e MercadoTecnologia e Estratégia Empresarial Tecnologia Poder e OrganizaçãoDesenvolvimento Tecnológico  no Brasil</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1) INTRODUÇÃO- Apresentação- Objetivo- Motivação (O porque da gestão tecnológica)- Visão Histórica2) CONCEITOS- Ciência- Tecnologia- Inovação e invenção- Base tecnológica- Difusão tecnológica- Sistema de patente e assemelhados.3) TECNOLOGIA E MERCADO- Tecnologia e a estrutura econômica- Tecnologia e vantagens comparativas- Estratégias competitivas baseadas em tecnologia4) TECNOLOGIA E ESTRATÉGIA EMPRESARIL- Tecnologia e estrutura industrial- Tecnologia e vantagens competitivas- Estratégia e tecnologia5) TECNOLOGIA PODER E ORGANIZAÇÃO- De Ford aos Sistemas Flexibilizados de Produção- Flexibilização e o Controle de Trabalho6) DESENVOLVIMENTO TECNOLÓGICO NO BRASIL- Visão histórica- Situação do Brasil até 1964- A Política Tecnológica no Governo Militar- Situação atual.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Avaliação da disciplina constará de uma avaliação escrita programa e de um seminário  a ser apresentado pelos alunos no final do semestre.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A avaliação escrita programa = P1 Seminário = P2   MP =(P1+P2)/2.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Na recuperação haverá uma aula de revisão e na semana seguinte uma avaliação escrita. A média final será a média simples entre MP e nota da recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1) ROSENBERG, N.; BIRDZELL JR, L.E. A história da riqueza do Ocidente - A transformação econômica no mundo industrial.  Rio de Janeiro, Edit. Record, p.339, 1986.2) BASTOS, E,M.C. Ciência, Tecnologia e Indústria no Brasil dos anos 80 - O colapso das políticas estruturantes. Campinas, UNICAMP, 1994. p. 244  (tese de doutorado).3) SCARBROUGH, H.; CORBETT, I.M. Technology and Organization Power, Maning and design. Routhedge, New York, 1992.4) DUSSAUGE, P. Strategic Technology Managment. John Willey &amp; Sons. New York, 1992.5) HAGUENAVER, L.; FERRAZ, J.C.; KUPFER, D.S. Competição e internalizacionação da indústria brasileira. O Brasil e a Economia Global. Rio de Janeiro, Campus, 1996. p 195-2176) ARRUDA, M.F.M. A Indústria e o Desenvolvimento Tecnológico Nacional. In: Conselho Nacional de Desenvolvimento Científico e Tecnológico-CNPq, Ciência e Tecnologia - Alicerces do Desenvolvimento. 1994, p. 25-447) BIELSCHOWSHI, R.; STUMPO, G. A internacionalização da indústria brasileira: Números lexão depois de alguns anos de abertura. In: BAUMANN, R. Corg. O Brasil e a Economia Global. Rio de Janeiro, CAMPUS, 1996. p. 167-193.8) COSTA, C.A.N. Política Industrial no Brasil - 1974-1989. Campinas, UNICAMP, 1994. p. 224 (tese de doutorado)9) LEITE, R.C.C. Tecnologia e Desenvolvimento Nacional. São Paulo, Duas Cidades, 1976. p. 97"</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4008.xlsx
+++ b/assets/disciplinas/LOQ4008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Capacitar os alunos a entenderem os conceitos e a lógica da gestão tecnológica bem como suas implicações na gestão das empresas e no desenvolvimento econômico</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>849935 - Humberto Felipe da Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>IntroduçãoConceitosTecnologia e MercadoTecnologia e Estratégia Empresarial Tecnologia Poder e OrganizaçãoDesenvolvimento Tecnológico  no Brasil</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1) INTRODUÇÃO- Apresentação- Objetivo- Motivação (O porque da gestão tecnológica)- Visão Histórica2) CONCEITOS- Ciência- Tecnologia- Inovação e invenção- Base tecnológica- Difusão tecnológica- Sistema de patente e assemelhados.3) TECNOLOGIA E MERCADO- Tecnologia e a estrutura econômica- Tecnologia e vantagens comparativas- Estratégias competitivas baseadas em tecnologia4) TECNOLOGIA E ESTRATÉGIA EMPRESARIL- Tecnologia e estrutura industrial- Tecnologia e vantagens competitivas- Estratégia e tecnologia5) TECNOLOGIA PODER E ORGANIZAÇÃO- De Ford aos Sistemas Flexibilizados de Produção- Flexibilização e o Controle de Trabalho6) DESENVOLVIMENTO TECNOLÓGICO NO BRASIL- Visão histórica- Situação do Brasil até 1964- A Política Tecnológica no Governo Militar- Situação atual.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Avaliação da disciplina constará de uma avaliação escrita programa e de um seminário  a ser apresentado pelos alunos no final do semestre.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Avaliação da disciplina constará de uma avaliação escrita programa e de um seminário  a ser apresentado pelos alunos no final do semestre.</t>
+    <t>A avaliação escrita programa = P1 Seminário = P2   MP =(P1+P2)/2.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A avaliação escrita programa = P1 Seminário = P2   MP =(P1+P2)/2.</t>
+    <t>Na recuperação haverá uma aula de revisão e na semana seguinte uma avaliação escrita. A média final será a média simples entre MP e nota da recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Na recuperação haverá uma aula de revisão e na semana seguinte uma avaliação escrita. A média final será a média simples entre MP e nota da recuperação.</t>
+    <t>1) ROSENBERG, N.; BIRDZELL JR, L.E. A história da riqueza do Ocidente - A transformação econômica no mundo industrial.  Rio de Janeiro, Edit. Record, p.339, 1986.2) BASTOS, E,M.C. Ciência, Tecnologia e Indústria no Brasil dos anos 80 - O colapso das políticas estruturantes. Campinas, UNICAMP, 1994. p. 244  (tese de doutorado).3) SCARBROUGH, H.; CORBETT, I.M. Technology and Organization Power, Maning and design. Routhedge, New York, 1992.4) DUSSAUGE, P. Strategic Technology Managment. John Willey &amp; Sons. New York, 1992.5) HAGUENAVER, L.; FERRAZ, J.C.; KUPFER, D.S. Competição e internalizacionação da indústria brasileira. O Brasil e a Economia Global. Rio de Janeiro, Campus, 1996. p 195-2176) ARRUDA, M.F.M. A Indústria e o Desenvolvimento Tecnológico Nacional. In: Conselho Nacional de Desenvolvimento Científico e Tecnológico-CNPq, Ciência e Tecnologia - Alicerces do Desenvolvimento. 1994, p. 25-447) BIELSCHOWSHI, R.; STUMPO, G. A internacionalização da indústria brasileira: Números lexão depois de alguns anos de abertura. In: BAUMANN, R. Corg. O Brasil e a Economia Global. Rio de Janeiro, CAMPUS, 1996. p. 167-193.8) COSTA, C.A.N. Política Industrial no Brasil - 1974-1989. Campinas, UNICAMP, 1994. p. 224 (tese de doutorado)9) LEITE, R.C.C. Tecnologia e Desenvolvimento Nacional. São Paulo, Duas Cidades, 1976. p. 97"</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +612,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
